--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Shh-Boc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Shh-Boc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H2">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.732019</v>
+        <v>2.689040333333333</v>
       </c>
       <c r="N2">
-        <v>5.196057</v>
+        <v>8.067121</v>
       </c>
       <c r="O2">
-        <v>0.09330805423918299</v>
+        <v>0.1682412044246168</v>
       </c>
       <c r="P2">
-        <v>0.09330805423918298</v>
+        <v>0.1682412044246168</v>
       </c>
       <c r="Q2">
-        <v>0.04385010236266666</v>
+        <v>0.2362321932833333</v>
       </c>
       <c r="R2">
-        <v>0.3946509212639999</v>
+        <v>2.12608973955</v>
       </c>
       <c r="S2">
-        <v>0.09330805423918299</v>
+        <v>0.1682412044246168</v>
       </c>
       <c r="T2">
-        <v>0.09330805423918298</v>
+        <v>0.1682412044246168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H3">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +623,22 @@
         <v>35.115018</v>
       </c>
       <c r="O3">
-        <v>0.6305769940849161</v>
+        <v>0.7323297768450604</v>
       </c>
       <c r="P3">
-        <v>0.6305769940849161</v>
+        <v>0.7323297768450604</v>
       </c>
       <c r="Q3">
-        <v>0.2963395385706666</v>
+        <v>1.0282847771</v>
       </c>
       <c r="R3">
-        <v>2.667055847136</v>
+        <v>9.2545629939</v>
       </c>
       <c r="S3">
-        <v>0.6305769940849161</v>
+        <v>0.7323297768450604</v>
       </c>
       <c r="T3">
-        <v>0.6305769940849161</v>
+        <v>0.7323297768450604</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H4">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.125349</v>
+        <v>1.514375</v>
       </c>
       <c r="N4">
-        <v>15.376047</v>
+        <v>4.543125</v>
       </c>
       <c r="O4">
-        <v>0.2761149516759009</v>
+        <v>0.09474765803706024</v>
       </c>
       <c r="P4">
-        <v>0.2761149516759009</v>
+        <v>0.09474765803706024</v>
       </c>
       <c r="Q4">
-        <v>0.1297601690826667</v>
+        <v>0.13303784375</v>
       </c>
       <c r="R4">
-        <v>1.167841521744</v>
+        <v>1.19734059375</v>
       </c>
       <c r="S4">
-        <v>0.2761149516759009</v>
+        <v>0.09474765803706024</v>
       </c>
       <c r="T4">
-        <v>0.2761149516759009</v>
+        <v>0.09474765803706024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.08785</v>
+      </c>
+      <c r="H5">
+        <v>0.26355</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.07482333333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.22447</v>
+      </c>
+      <c r="O5">
+        <v>0.004681360693262658</v>
+      </c>
+      <c r="P5">
+        <v>0.004681360693262658</v>
+      </c>
+      <c r="Q5">
+        <v>0.006573229833333334</v>
+      </c>
+      <c r="R5">
+        <v>0.0591590685</v>
+      </c>
+      <c r="S5">
+        <v>0.004681360693262658</v>
+      </c>
+      <c r="T5">
+        <v>0.004681360693262658</v>
       </c>
     </row>
   </sheetData>
